--- a/biology/Botanique/Rudolf_Abelin/Rudolf_Abelin.xlsx
+++ b/biology/Botanique/Rudolf_Abelin/Rudolf_Abelin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Rudolf Zacharias Abelin, né le 30 mai 1864 à Malmö et mort le 2 janvier 1961 est un célèbre paysagiste suédois et spécialiste de la pomologie. Il est le fils du ministre de la guerre suédois (1867-1871), Gustaf Rudolf Abelin (1819-1903). Il reçoit de nombreux prix en Suède et au Danemark, ainsi qu'à l'exposition universelle de Paris de 1900. Il est l'auteur de plus d'une douzaine d'ouvrages écrits surtout entre 1890 et 1915.
 </t>
@@ -511,7 +523,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Kvinnan och trädgården (1890)
 Fruktodlingsfrågan 1899: en återblick, ett önskemål (1900)
